--- a/pre tests/cowin/covid slot.xlsx
+++ b/pre tests/cowin/covid slot.xlsx
@@ -600,13 +600,13 @@
         <v>31</v>
       </c>
       <c r="P2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q2">
         <v>25</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -671,13 +671,13 @@
         <v>31</v>
       </c>
       <c r="P3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3">
         <v>25</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
